--- a/biology/Botanique/Trichomanes_arbuscula/Trichomanes_arbuscula.xlsx
+++ b/biology/Botanique/Trichomanes_arbuscula/Trichomanes_arbuscula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trichomanes arbuscula est une espèce de fougères de la famille des Hyménophyllacées.
 </t>
@@ -511,19 +523,21 @@
           <t>Historique et position taxinomique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Trichomanes arbuscula appartient au sous-genre Trichomanes.
-En 1827, Nicaise Auguste Desvaux décrit une première fois cette espèce dans le genre Trichomanes à partir d'un échantillon collecté en Guyane[1]
+En 1827, Nicaise Auguste Desvaux décrit une première fois cette espèce dans le genre Trichomanes à partir d'un échantillon collecté en Guyane
 En 1831, William Jackson Hooker et Robert Kaye Greville, sur la base d'un exemplaire envoyé par le Docteur Baker de la Jamaïque, la décrivent à nouveau sous le nom de Trichomanes bancroftii. Ils la dédicacent au médecin militaire britannique en poste à Kingston Edward Nathaniel Bancroft.
-En 1834, Gustav Kunze publie l'espèce Trichomanes coriaceum à partir d'un échantillon guyanais collecté par Eduard Friedrich Poeppig en 1828[2]. Il remarque lui-même la proximité avec Trichomanes arbuscula et Trichomanes bancroftii.
-En 1875, Karl Anton Eugen Prantl place le basionyme de Hooker et Greville dans le genre Ptilophyllum : Ptilophyllum bancroftii[3].
-En 1906, Carl Frederik Albert Christensen publie une première fois la synonymie de Trichomanes arbuscula avec Trichomanes bancroftii et Trichomanes coriaceum[4].
-En 1974, Conrad Vernon Morton en fait l'espèce type de la section Trigonophyllum du sous-genre Achomanes et confirme la synonymie avec Trichomanes bancroftii[5].
-En 1977, Rodolfo Emilio Giuseppe Pichi-Sermolli transfert le basionyme Trichomanes arbuscula dans le genre Trigonophyllum[6].
+En 1834, Gustav Kunze publie l'espèce Trichomanes coriaceum à partir d'un échantillon guyanais collecté par Eduard Friedrich Poeppig en 1828. Il remarque lui-même la proximité avec Trichomanes arbuscula et Trichomanes bancroftii.
+En 1875, Karl Anton Eugen Prantl place le basionyme de Hooker et Greville dans le genre Ptilophyllum : Ptilophyllum bancroftii.
+En 1906, Carl Frederik Albert Christensen publie une première fois la synonymie de Trichomanes arbuscula avec Trichomanes bancroftii et Trichomanes coriaceum.
+En 1974, Conrad Vernon Morton en fait l'espèce type de la section Trigonophyllum du sous-genre Achomanes et confirme la synonymie avec Trichomanes bancroftii.
+En 1977, Rodolfo Emilio Giuseppe Pichi-Sermolli transfert le basionyme Trichomanes arbuscula dans le genre Trigonophyllum.
 En 1989, Robert G. Stolze et Rolla Milton Tryon confirment aussi la synonymie entre Trichomanes arbuscula et Trichomanes bancroftii.
-Toujours en 1989, Vincente Mercano décrit, à partir d'un échantillon vénézuélien, l'espèce Trichomanes polyphlebius[7]. La synonymie avec Trichomanes arbuscula a été établie par Julian Steyermark, puis par Peter Møller Jørgensen et Susana León-Yánez, puis par Victoria Ann Funk, Paul Edward Berry, S. Alexander, T. H. Hollowell et Carol Lynn Kelloff[8].
-En 2006, Atsushi Ebihara, Jean-Yves Dubuisson, Kunio Iwatsuki, Sabine Hennequin et Motomi Ito prennent Trichomanes arbuscula comme espèce représentative du genre Trichomanes, sous-genre Trichomanes[9].
+Toujours en 1989, Vincente Mercano décrit, à partir d'un échantillon vénézuélien, l'espèce Trichomanes polyphlebius. La synonymie avec Trichomanes arbuscula a été établie par Julian Steyermark, puis par Peter Møller Jørgensen et Susana León-Yánez, puis par Victoria Ann Funk, Paul Edward Berry, S. Alexander, T. H. Hollowell et Carol Lynn Kelloff.
+En 2006, Atsushi Ebihara, Jean-Yves Dubuisson, Kunio Iwatsuki, Sabine Hennequin et Motomi Ito prennent Trichomanes arbuscula comme espèce représentative du genre Trichomanes, sous-genre Trichomanes.
 Elle compte donc de nombreux synonymes :
 Ptilophyllum bancroftii (Hook. &amp; Grev.) Prantl
 Trichomanes bancroftii Hook. &amp; Grev.
@@ -557,7 +571,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Trichomanes arbuscula est une espèce classée dans le sous-genre Trichomanes.
 Cette fougère a les caractéristiques suivantes :
@@ -565,7 +581,7 @@
 les frondes ont une quinzaine de centimètres ;
 le limbe est profondément divisé deux à trois fois ;
 les sores sont tubulaires avec un long style portant les sporanges ; ils sont insérés dans le limbe à l'extrémité des segments.
-Cette espèce compte 32 paires de chromosomes[10]. Un comptage tetraploïde (128 chromosomes) a été aussi réalisé[11].
+Cette espèce compte 32 paires de chromosomes. Un comptage tetraploïde (128 chromosomes) a été aussi réalisé.
 Une variété est reconnue : Trichomanes bancroftii var. holopterum (Kunze) Christ.
 Cette variété est synonyme de Trichomanes holopterum Kunze.
 </t>
@@ -596,7 +612,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce, tant épiphyte que terrestre, est présente dans les forêts denses d'Amérique du Sud tropicale, principalement amazonienne : Venezuela, Guyana et Guyane.
 </t>
